--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32593.40612335181</v>
+        <v>6486087.818547009</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32593.40612335181</v>
+        <v>6486087.818547009</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10522.89640214633</v>
+        <v>631373.78412878</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10522.89640214633</v>
+        <v>631373.78412878</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189034230.310055</v>
+        <v>48268276.33627547</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10467.41824933302</v>
+        <v>1102650.59274496</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20170.46789064663</v>
+        <v>2078667.799002721</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29873.51753196021</v>
+        <v>3054685.005260482</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40084.13252134686</v>
+        <v>3998230.478375527</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50294.74751073348</v>
+        <v>4941775.951490573</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60114.84314639214</v>
+        <v>5917494.666340457</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69934.93878205078</v>
+        <v>6893213.381190341</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79755.03441770944</v>
+        <v>7868932.096040224</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89965.64940709606</v>
+        <v>8812477.569155263</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100176.2643964827</v>
+        <v>9756023.042270303</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110008.0979017343</v>
+        <v>10732058.23102229</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119839.8410426934</v>
+        <v>11708075.43728006</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129671.5841836526</v>
+        <v>12684092.64353783</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139882.1088087466</v>
+        <v>13627620.13415865</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150092.7237981332</v>
+        <v>14571165.6072737</v>
       </c>
     </row>
   </sheetData>
